--- a/BackTest/2019-10-15 BackTest LRC.xlsx
+++ b/BackTest/2019-10-15 BackTest LRC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>16.66666666666706</v>
+      </c>
       <c r="L12" t="n">
         <v>39.67</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.399999999999984</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>28.57142857142879</v>
+      </c>
       <c r="L13" t="n">
         <v>39.70999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.499999999999986</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>7.692307692307356</v>
+      </c>
       <c r="L14" t="n">
         <v>39.73999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.499999999999986</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-9.090909090909326</v>
+      </c>
       <c r="L15" t="n">
         <v>39.75</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.499999999999986</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>11.11111111111058</v>
+      </c>
       <c r="L16" t="n">
         <v>39.74</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.499999999999986</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>11.11111111111058</v>
+      </c>
       <c r="L17" t="n">
         <v>39.75000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.59999999999998</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>39.75000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.699999999999982</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>11.11111111111146</v>
+      </c>
       <c r="L19" t="n">
         <v>39.74000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.799999999999983</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-14.28571428571371</v>
+      </c>
       <c r="L20" t="n">
         <v>39.76000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.799999999999983</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>39.75000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.899999999999984</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-59.99999999999943</v>
+      </c>
       <c r="L22" t="n">
         <v>39.74000000000001</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.899999999999984</v>
       </c>
       <c r="K23" t="n">
-        <v>5.263157894736961</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L23" t="n">
         <v>39.71000000000002</v>
@@ -1466,7 +1488,7 @@
         <v>1.899999999999984</v>
       </c>
       <c r="K24" t="n">
-        <v>5.263157894736961</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L24" t="n">
         <v>39.69000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>1.899999999999984</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.882352941176618</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L25" t="n">
         <v>39.67000000000002</v>
@@ -1564,7 +1586,7 @@
         <v>1.899999999999984</v>
       </c>
       <c r="K26" t="n">
-        <v>-20</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L26" t="n">
         <v>39.65000000000002</v>
@@ -1613,7 +1635,7 @@
         <v>1.999999999999986</v>
       </c>
       <c r="K27" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50</v>
       </c>
       <c r="L27" t="n">
         <v>39.62000000000002</v>
@@ -1662,7 +1684,7 @@
         <v>2.299999999999983</v>
       </c>
       <c r="K28" t="n">
-        <v>5.882352941176175</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L28" t="n">
         <v>39.63000000000002</v>
@@ -1711,7 +1733,7 @@
         <v>2.299999999999983</v>
       </c>
       <c r="K29" t="n">
-        <v>5.882352941176175</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L29" t="n">
         <v>39.65000000000002</v>
@@ -1760,7 +1782,7 @@
         <v>2.499999999999986</v>
       </c>
       <c r="K30" t="n">
-        <v>29.41176470588255</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L30" t="n">
         <v>39.68000000000002</v>
@@ -1809,7 +1831,7 @@
         <v>2.499999999999986</v>
       </c>
       <c r="K31" t="n">
-        <v>14.28571428571458</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L31" t="n">
         <v>39.71000000000002</v>
@@ -1860,7 +1882,7 @@
         <v>2.799999999999983</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L32" t="n">
         <v>39.72000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>3.099999999999987</v>
       </c>
       <c r="K33" t="n">
-        <v>-29.41176470588231</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L33" t="n">
         <v>39.70000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>3.099999999999987</v>
       </c>
       <c r="K34" t="n">
-        <v>-24.99999999999989</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L34" t="n">
         <v>39.68000000000001</v>
